--- a/Angles.xlsx
+++ b/Angles.xlsx
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -68,12 +68,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -438,23 +530,23 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">30+B3</f>
+        <f t="shared" ref="C3:C13" si="0">30+B3</f>
         <v>36</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="1">50+A3*SIN(RADIANS(B3))</f>
+        <f t="shared" ref="D3:D24" si="1">50+A3*SIN(RADIANS(B3))</f>
         <v>52.299626191888379</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="2">50+A3*COS(RADIANS(B3))</f>
+        <f t="shared" ref="E3:E24" si="2">50+A3*COS(RADIANS(B3))</f>
         <v>71.879481698102012</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="3">50+A3*SIN(RADIANS(C3))</f>
+        <f t="shared" ref="F3:F13" si="3">50+A3*SIN(RADIANS(C3))</f>
         <v>62.931275550434407</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G12" si="4">50+A3*COS(RADIANS(C3))</f>
+        <f t="shared" ref="G3:G13" si="4">50+A3*COS(RADIANS(C3))</f>
         <v>67.798373876248846</v>
       </c>
     </row>
@@ -571,147 +663,343 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>34</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <f t="shared" si="4"/>
         <v>79.444863728670924</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>35</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>53.658496214367872</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <f t="shared" si="2"/>
         <v>84.808266337889563</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
         <v>70.572483830236564</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <f t="shared" si="4"/>
         <v>78.315594803123162</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>36</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <f t="shared" si="1"/>
         <v>57.484820869439339</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <f t="shared" si="2"/>
         <v>85.213313626417005</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
         <v>74.0887018289189</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <f t="shared" si="4"/>
         <v>76.753213717186185</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>37</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <f t="shared" si="1"/>
         <v>61.433628791873055</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <f t="shared" si="2"/>
         <v>85.189091102920685</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f t="shared" si="3"/>
         <v>77.496358542663586</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <f t="shared" si="4"/>
         <v>74.757832435277749</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>38</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>65.455992436880408</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <f t="shared" si="2"/>
         <v>84.71472739041883</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <f t="shared" si="3"/>
         <v>80.742645786248005</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <f t="shared" si="4"/>
         <v>72.335839587113981</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10">
+        <v>29</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="1"/>
+        <v>64.5</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
+        <v>75.114736709748726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11">
+        <v>60</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="1"/>
+        <v>75.114736709748712</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>29</v>
+      </c>
+      <c r="B16" s="11">
+        <v>90</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11">
+        <v>120</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="1"/>
+        <v>75.114736709748726</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="2"/>
+        <v>35.500000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10">
+        <v>29</v>
+      </c>
+      <c r="B18" s="11">
+        <v>150</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="1"/>
+        <v>64.5</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="2"/>
+        <v>24.885263290251277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10">
+        <v>29</v>
+      </c>
+      <c r="B19" s="11">
+        <v>180</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10">
+        <v>29</v>
+      </c>
+      <c r="B20" s="11">
+        <v>210</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>35.5</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="2"/>
+        <v>24.885263290251281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10">
+        <v>29</v>
+      </c>
+      <c r="B21" s="11">
+        <v>240</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>24.885263290251288</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="2"/>
+        <v>35.499999999999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10">
+        <v>29</v>
+      </c>
+      <c r="B22" s="11">
+        <v>270</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="2"/>
+        <v>49.999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10">
+        <v>29</v>
+      </c>
+      <c r="B23" s="11">
+        <v>300</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="1"/>
+        <v>24.885263290251281</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11">
+        <v>330</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="1"/>
+        <v>35.499999999999986</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="2"/>
+        <v>75.114736709748712</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Angles.xlsx
+++ b/Angles.xlsx
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -530,23 +530,23 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C13" si="0">30+B3</f>
+        <f t="shared" ref="C3:C12" si="0">30+B3</f>
         <v>36</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D24" si="1">50+A3*SIN(RADIANS(B3))</f>
+        <f t="shared" ref="D3:D27" si="1">50+A3*SIN(RADIANS(B3))</f>
         <v>52.299626191888379</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E24" si="2">50+A3*COS(RADIANS(B3))</f>
+        <f t="shared" ref="E3:E27" si="2">50+A3*COS(RADIANS(B3))</f>
         <v>71.879481698102012</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="3">50+A3*SIN(RADIANS(C3))</f>
+        <f t="shared" ref="F3:F12" si="3">50+A3*SIN(RADIANS(C3))</f>
         <v>62.931275550434407</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="4">50+A3*COS(RADIANS(C3))</f>
+        <f t="shared" ref="G3:G12" si="4">50+A3*COS(RADIANS(C3))</f>
         <v>67.798373876248846</v>
       </c>
     </row>
@@ -995,6 +995,214 @@
       <c r="E24" s="11">
         <f t="shared" si="2"/>
         <v>75.114736709748712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <f>4*6</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
+        <v>65.455992436880408</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="2"/>
+        <v>84.71472739041883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <f>B26+30</f>
+        <v>54</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="1"/>
+        <v>80.742645786248005</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="2"/>
+        <v>72.335839587113981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B32" si="5">B27+30</f>
+        <v>84</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" ref="D28:D32" si="6">50+A28*SIN(RADIANS(B28))</f>
+        <v>87.791832023994388</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" ref="E28:E32" si="7">50+A28*COS(RADIANS(B28))</f>
+        <v>53.972081604170832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="6"/>
+        <v>84.71472739041883</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="7"/>
+        <v>34.544007563119592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="6"/>
+        <v>72.335839587113981</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="7"/>
+        <v>19.257354213752002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="6"/>
+        <v>53.972081604170839</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="7"/>
+        <v>12.208167976005612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="6"/>
+        <v>34.544007563119592</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="7"/>
+        <v>15.28527260958117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B37" si="8">B32+30</f>
+        <v>234</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" ref="D33:D37" si="9">50+A33*SIN(RADIANS(B33))</f>
+        <v>19.257354213752002</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" ref="E33:E37" si="10">50+A33*COS(RADIANS(B33))</f>
+        <v>27.664160412886016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="9"/>
+        <v>12.208167976005612</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="10"/>
+        <v>46.027918395829175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="8"/>
+        <v>294</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="9"/>
+        <v>15.285272609581156</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="10"/>
+        <v>65.455992436880393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="8"/>
+        <v>324</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="9"/>
+        <v>27.664160412886012</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="10"/>
+        <v>80.742645786248005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="8"/>
+        <v>354</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="9"/>
+        <v>46.027918395829168</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="10"/>
+        <v>87.791832023994388</v>
       </c>
     </row>
   </sheetData>

--- a/Angles.xlsx
+++ b/Angles.xlsx
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +51,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -149,10 +161,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -166,8 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,7 +478,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1002,207 +1017,208 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <f>4*6</f>
-        <v>24</v>
-      </c>
-      <c r="D26" s="11">
-        <f t="shared" si="1"/>
-        <v>65.455992436880408</v>
-      </c>
-      <c r="E26" s="11">
-        <f t="shared" si="2"/>
-        <v>84.71472739041883</v>
+      <c r="A26" s="13">
+        <v>36</v>
+      </c>
+      <c r="B26" s="13">
+        <v>12</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13">
+        <f t="shared" si="1"/>
+        <v>57.484820869439339</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="2"/>
+        <v>85.213313626417005</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
-        <v>38</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="13">
+        <v>36</v>
+      </c>
+      <c r="B27" s="13">
         <f>B26+30</f>
-        <v>54</v>
-      </c>
-      <c r="D27" s="11">
-        <f t="shared" si="1"/>
-        <v>80.742645786248005</v>
-      </c>
-      <c r="E27" s="11">
-        <f t="shared" si="2"/>
-        <v>72.335839587113981</v>
+        <v>42</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13">
+        <f t="shared" si="1"/>
+        <v>74.0887018289189</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="2"/>
+        <v>76.753213717186185</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
-        <v>38</v>
+      <c r="A28" s="13">
+        <v>36</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28:B32" si="5">B27+30</f>
-        <v>84</v>
-      </c>
-      <c r="D28" s="11">
+        <v>72</v>
+      </c>
+      <c r="D28">
         <f t="shared" ref="D28:D32" si="6">50+A28*SIN(RADIANS(B28))</f>
-        <v>87.791832023994388</v>
-      </c>
-      <c r="E28" s="11">
+        <v>84.238034586625531</v>
+      </c>
+      <c r="E28">
         <f t="shared" ref="E28:E32" si="7">50+A28*COS(RADIANS(B28))</f>
-        <v>53.972081604170832</v>
+        <v>61.124611797498105</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
-        <v>38</v>
+      <c r="A29" s="13">
+        <v>36</v>
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>114</v>
-      </c>
-      <c r="D29" s="11">
+        <v>102</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="6"/>
-        <v>84.71472739041883</v>
-      </c>
-      <c r="E29" s="11">
+        <v>85.213313626417005</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="7"/>
-        <v>34.544007563119592</v>
+        <v>42.515179130560661</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
-        <v>38</v>
+      <c r="A30" s="13">
+        <v>36</v>
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>144</v>
-      </c>
-      <c r="D30" s="11">
+        <v>132</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="6"/>
-        <v>72.335839587113981</v>
-      </c>
-      <c r="E30" s="11">
+        <v>76.753213717186185</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="7"/>
-        <v>19.257354213752002</v>
+        <v>25.911298171081103</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
-        <v>38</v>
+      <c r="A31" s="13">
+        <v>36</v>
       </c>
       <c r="B31">
         <f t="shared" si="5"/>
-        <v>174</v>
-      </c>
-      <c r="D31" s="11">
+        <v>162</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="6"/>
-        <v>53.972081604170839</v>
-      </c>
-      <c r="E31" s="11">
+        <v>61.124611797498112</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="7"/>
-        <v>12.208167976005612</v>
+        <v>15.761965413374476</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
-        <v>38</v>
+      <c r="A32" s="13">
+        <v>36</v>
       </c>
       <c r="B32">
         <f t="shared" si="5"/>
-        <v>204</v>
-      </c>
-      <c r="D32" s="11">
+        <v>192</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="6"/>
-        <v>34.544007563119592</v>
-      </c>
-      <c r="E32" s="11">
+        <v>42.515179130560654</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="7"/>
-        <v>15.28527260958117</v>
+        <v>14.786686373583002</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
-        <v>38</v>
+      <c r="A33" s="13">
+        <v>36</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B37" si="8">B32+30</f>
-        <v>234</v>
-      </c>
-      <c r="D33" s="11">
+        <v>222</v>
+      </c>
+      <c r="D33">
         <f t="shared" ref="D33:D37" si="9">50+A33*SIN(RADIANS(B33))</f>
-        <v>19.257354213752002</v>
-      </c>
-      <c r="E33" s="11">
+        <v>25.911298171081103</v>
+      </c>
+      <c r="E33">
         <f t="shared" ref="E33:E37" si="10">50+A33*COS(RADIANS(B33))</f>
-        <v>27.664160412886016</v>
+        <v>23.246786282813808</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
-        <v>38</v>
+      <c r="A34" s="13">
+        <v>36</v>
       </c>
       <c r="B34">
         <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="D34" s="11">
+        <v>252</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="9"/>
-        <v>12.208167976005612</v>
-      </c>
-      <c r="E34" s="11">
+        <v>15.761965413374476</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="10"/>
-        <v>46.027918395829175</v>
+        <v>38.875388202501888</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
-        <v>38</v>
+      <c r="A35" s="13">
+        <v>36</v>
       </c>
       <c r="B35">
         <f t="shared" si="8"/>
-        <v>294</v>
-      </c>
-      <c r="D35" s="11">
+        <v>282</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="9"/>
-        <v>15.285272609581156</v>
-      </c>
-      <c r="E35" s="11">
+        <v>14.786686373583002</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="10"/>
-        <v>65.455992436880393</v>
+        <v>57.484820869439339</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
-        <v>38</v>
+      <c r="A36" s="13">
+        <v>36</v>
       </c>
       <c r="B36">
         <f t="shared" si="8"/>
-        <v>324</v>
-      </c>
-      <c r="D36" s="11">
+        <v>312</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="9"/>
-        <v>27.664160412886012</v>
-      </c>
-      <c r="E36" s="11">
+        <v>23.246786282813794</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="10"/>
-        <v>80.742645786248005</v>
+        <v>74.088701828918886</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
-        <v>38</v>
+      <c r="A37" s="13">
+        <v>36</v>
       </c>
       <c r="B37">
         <f t="shared" si="8"/>
-        <v>354</v>
-      </c>
-      <c r="D37" s="11">
+        <v>342</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="9"/>
-        <v>46.027918395829168</v>
-      </c>
-      <c r="E37" s="11">
+        <v>38.875388202501888</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="10"/>
-        <v>87.791832023994388</v>
+        <v>84.238034586625531</v>
       </c>
     </row>
   </sheetData>

--- a/Angles.xlsx
+++ b/Angles.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1018,207 +1018,207 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B26" s="13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>57.484820869439339</v>
+        <v>56.180339887498945</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="2"/>
-        <v>85.213313626417005</v>
+        <v>69.021130325903073</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B27" s="13">
         <f>B26+30</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>74.0887018289189</v>
+        <v>64.86289650954788</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="2"/>
-        <v>76.753213717186185</v>
+        <v>63.382612127177168</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28:B32" si="5">B27+30</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:D32" si="6">50+A28*SIN(RADIANS(B28))</f>
-        <v>84.238034586625531</v>
+        <v>69.562952014676114</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28:E32" si="7">50+A28*COS(RADIANS(B28))</f>
-        <v>61.124611797498105</v>
+        <v>54.158233816355192</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D29">
         <f t="shared" si="6"/>
-        <v>85.213313626417005</v>
+        <v>69.021130325903073</v>
       </c>
       <c r="E29">
         <f t="shared" si="7"/>
-        <v>42.515179130560661</v>
+        <v>43.819660112501055</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D30">
         <f t="shared" si="6"/>
-        <v>76.753213717186185</v>
+        <v>63.382612127177168</v>
       </c>
       <c r="E30">
         <f t="shared" si="7"/>
-        <v>25.911298171081103</v>
+        <v>35.13710349045212</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B31">
         <f t="shared" si="5"/>
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D31">
         <f t="shared" si="6"/>
-        <v>61.124611797498112</v>
+        <v>54.158233816355185</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
-        <v>15.761965413374476</v>
+        <v>30.437047985323886</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B32">
         <f t="shared" si="5"/>
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D32">
         <f t="shared" si="6"/>
-        <v>42.515179130560654</v>
+        <v>43.819660112501055</v>
       </c>
       <c r="E32">
         <f t="shared" si="7"/>
-        <v>14.786686373583002</v>
+        <v>30.978869674096927</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B37" si="8">B32+30</f>
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:D37" si="9">50+A33*SIN(RADIANS(B33))</f>
-        <v>25.911298171081103</v>
+        <v>35.137103490452112</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E37" si="10">50+A33*COS(RADIANS(B33))</f>
-        <v>23.246786282813808</v>
+        <v>36.617387872822839</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <f t="shared" si="8"/>
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D34">
         <f t="shared" si="9"/>
-        <v>15.761965413374476</v>
+        <v>30.43704798532389</v>
       </c>
       <c r="E34">
         <f t="shared" si="10"/>
-        <v>38.875388202501888</v>
+        <v>45.841766183644808</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B35">
         <f t="shared" si="8"/>
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D35">
         <f t="shared" si="9"/>
-        <v>14.786686373583002</v>
+        <v>30.978869674096927</v>
       </c>
       <c r="E35">
         <f t="shared" si="10"/>
-        <v>57.484820869439339</v>
+        <v>56.180339887498945</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D36">
         <f t="shared" si="9"/>
-        <v>23.246786282813794</v>
+        <v>36.617387872822839</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>74.088701828918886</v>
+        <v>64.86289650954788</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <f t="shared" si="8"/>
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D37">
         <f t="shared" si="9"/>
-        <v>38.875388202501888</v>
+        <v>45.8417661836448</v>
       </c>
       <c r="E37">
         <f t="shared" si="10"/>
-        <v>84.238034586625531</v>
+        <v>69.562952014676114</v>
       </c>
     </row>
   </sheetData>

--- a/Angles.xlsx
+++ b/Angles.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1018,207 +1018,207 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>56.180339887498945</v>
+        <v>50</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="2"/>
-        <v>69.021130325903073</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" s="13">
         <f>B26+30</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>64.86289650954788</v>
+        <v>58.5</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="2"/>
-        <v>63.382612127177168</v>
+        <v>64.722431864335462</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28:B32" si="5">B27+30</f>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:D32" si="6">50+A28*SIN(RADIANS(B28))</f>
-        <v>69.562952014676114</v>
+        <v>64.722431864335462</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28:E32" si="7">50+A28*COS(RADIANS(B28))</f>
-        <v>54.158233816355192</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <f t="shared" si="6"/>
-        <v>69.021130325903073</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <f t="shared" si="7"/>
-        <v>43.819660112501055</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <f t="shared" si="6"/>
-        <v>63.382612127177168</v>
+        <v>64.722431864335462</v>
       </c>
       <c r="E30">
         <f t="shared" si="7"/>
-        <v>35.13710349045212</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <f t="shared" si="5"/>
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D31">
         <f t="shared" si="6"/>
-        <v>54.158233816355185</v>
+        <v>58.5</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
-        <v>30.437047985323886</v>
+        <v>35.277568135664538</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D32">
         <f t="shared" si="6"/>
-        <v>43.819660112501055</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <f t="shared" si="7"/>
-        <v>30.978869674096927</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B37" si="8">B32+30</f>
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33:D37" si="9">50+A33*SIN(RADIANS(B33))</f>
-        <v>35.137103490452112</v>
+        <v>41.5</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E37" si="10">50+A33*COS(RADIANS(B33))</f>
-        <v>36.617387872822839</v>
+        <v>35.277568135664545</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <f t="shared" si="8"/>
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D34">
         <f t="shared" si="9"/>
-        <v>30.43704798532389</v>
+        <v>35.277568135664552</v>
       </c>
       <c r="E34">
         <f t="shared" si="10"/>
-        <v>45.841766183644808</v>
+        <v>41.499999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <f t="shared" si="8"/>
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D35">
         <f t="shared" si="9"/>
-        <v>30.978869674096927</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <f t="shared" si="10"/>
-        <v>56.180339887498945</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <f t="shared" si="8"/>
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="D36">
         <f t="shared" si="9"/>
-        <v>36.617387872822839</v>
+        <v>35.277568135664545</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>64.86289650954788</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <f t="shared" si="8"/>
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D37">
         <f t="shared" si="9"/>
-        <v>45.8417661836448</v>
+        <v>41.499999999999993</v>
       </c>
       <c r="E37">
         <f t="shared" si="10"/>
-        <v>69.562952014676114</v>
+        <v>64.722431864335448</v>
       </c>
     </row>
   </sheetData>
